--- a/korean_dramas_wikipedia.xlsx
+++ b/korean_dramas_wikipedia.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nowsh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nowsh\Documents\kdramas-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4649FF2-D81A-407C-B4B4-6E9BE5C19577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{407DBDB9-A681-4CBC-A110-842F5F925886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5917,23 +5917,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -6247,7 +6231,7 @@
   <dimension ref="A1:B1857"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B1858" sqref="B1858"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19931,8 +19915,8 @@
       <c r="A1710" t="s">
         <v>213</v>
       </c>
-      <c r="B1710" t="s">
-        <v>1868</v>
+      <c r="B1710" s="2" t="s">
+        <v>1869</v>
       </c>
     </row>
     <row r="1711" spans="1:2" x14ac:dyDescent="0.35">
@@ -21116,7 +21100,7 @@
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
